--- a/116物质属性.xlsx
+++ b/116物质属性.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\111\PycharmProjects\111\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\test\PyCharm\git\pandas_data_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640A6C8A-425B-4A9F-8CB4-87BC65F37271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBFD32E-02E7-4C2C-BE63-BEE021F14CA8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2OFP" sheetId="2" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="239">
   <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2508,6 +2502,14 @@
   </si>
   <si>
     <t>检出限（微克）</t>
+  </si>
+  <si>
+    <t>FAC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FVOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2563,18 +2565,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2604,7 +2600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2612,7 +2608,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2625,6 +2620,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2907,19 +2904,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9970DBD4-4BE0-4C40-BE4A-5586A94FAA36}">
   <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105:I116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2932,18 +2929,23 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2956,17 +2958,19 @@
       <c r="D2">
         <v>30.07</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="5">
-        <v>0.13424107142857145</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F2" s="4">
+        <v>0.2147857142857143</v>
+      </c>
+      <c r="G2" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -2979,17 +2983,19 @@
       <c r="D3">
         <v>28.05</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="5">
-        <v>0.12522321428571431</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F3" s="4">
+        <v>0.10518750000000002</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -3002,17 +3008,19 @@
       <c r="D4">
         <v>44.1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="5">
-        <v>0.19687500000000002</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="4">
+        <v>4.725E-2</v>
+      </c>
+      <c r="G4" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -3025,17 +3033,19 @@
       <c r="D5">
         <v>42.08</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="5">
-        <v>0.18785714285714289</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <v>0.12022857142857143</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3048,17 +3058,19 @@
       <c r="D6">
         <v>58.12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="5">
-        <v>0.77839285714285722</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="4">
+        <v>0.22832857142857141</v>
+      </c>
+      <c r="G6" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -3071,17 +3083,19 @@
       <c r="D7">
         <v>26.04</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="5">
-        <v>0.11625000000000001</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F7" s="4">
+        <v>4.1849999999999998E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -3094,17 +3108,19 @@
       <c r="D8">
         <v>58.12</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="5">
-        <v>0.25946428571428576</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="4">
+        <v>7.2650000000000006E-2</v>
+      </c>
+      <c r="G8" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -3117,17 +3133,19 @@
       <c r="D9">
         <v>56.11</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="5">
-        <v>0.25049107142857147</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F9" s="4">
+        <v>8.0157142857142857E-2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -3140,17 +3158,19 @@
       <c r="D10">
         <v>56.1</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="5">
-        <v>0.25044642857142863</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <v>0.11019642857142857</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -3163,17 +3183,19 @@
       <c r="D11">
         <v>56.11</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="5">
-        <v>0.25049107142857147</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <v>6.0117857142857146E-2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -3186,17 +3208,19 @@
       <c r="D12">
         <v>70.13</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="5">
-        <v>0.31308035714285715</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="4">
+        <v>0.21289464285714288</v>
+      </c>
+      <c r="G12" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -3209,17 +3233,19 @@
       <c r="D13">
         <v>72.150000000000006</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="5">
-        <v>0.32209821428571433</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="4">
+        <v>5.1535714285714296E-2</v>
+      </c>
+      <c r="G13" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -3232,17 +3258,19 @@
       <c r="D14">
         <v>72.150000000000006</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="5">
-        <v>0.32209821428571433</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="4">
+        <v>0.11595535714285715</v>
+      </c>
+      <c r="G14" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
@@ -3252,17 +3280,19 @@
       <c r="D15">
         <v>120.91</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F15" s="5">
-        <v>0.53977678571428578</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <v>0.77727857142857149</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
@@ -3272,17 +3302,19 @@
       <c r="D16">
         <v>170.92</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="5">
-        <v>1.5260714285714285</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
+        <v>0.7019928571428572</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
@@ -3295,17 +3327,19 @@
       <c r="D17">
         <v>50.49</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="5">
-        <v>0.22540178571428574</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="4">
+        <v>0.35162678571428574</v>
+      </c>
+      <c r="G17" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -3318,17 +3352,19 @@
       <c r="D18">
         <v>62.5</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="5">
-        <v>0.27901785714285715</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <v>0.18973214285714288</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -3341,17 +3377,19 @@
       <c r="D19">
         <v>54.09</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="5">
-        <v>0.24147321428571433</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F19" s="4">
+        <v>0.1835196428571429</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -3361,17 +3399,19 @@
       <c r="D20">
         <v>94.94</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="5">
-        <v>0.42383928571428575</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="4">
+        <v>0.10172142857142859</v>
+      </c>
+      <c r="G20" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -3381,17 +3421,19 @@
       <c r="D21">
         <v>64.510000000000005</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="5">
-        <v>0.28799107142857144</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>0.10367678571428574</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
@@ -3401,17 +3443,19 @@
       <c r="D22">
         <v>137.37</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F22" s="5">
-        <v>0.61325892857142872</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <v>0.17171250000000002</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -3424,17 +3468,19 @@
       <c r="D23">
         <v>70.13</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="5">
-        <v>0.62616071428571429</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <v>0.12523214285714285</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
@@ -3447,17 +3493,19 @@
       <c r="D24">
         <v>70.13</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="5">
-        <v>0.31308035714285715</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <v>0.16280178571428572</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
@@ -3470,17 +3518,19 @@
       <c r="D25">
         <v>68.12</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="5">
-        <v>0.30410714285714291</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F25" s="4">
+        <v>9.7314285714285714E-2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
@@ -3493,17 +3543,19 @@
       <c r="D26">
         <v>70.13</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="5">
-        <v>0.31308035714285715</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <v>0.10018571428571429</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -3516,17 +3568,19 @@
       <c r="D27">
         <v>56.06</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="5">
-        <v>0.25026785714285721</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F27" s="4">
+        <v>7.0075000000000012E-2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
@@ -3539,17 +3593,19 @@
       <c r="D28">
         <v>96.94</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F28" s="5">
-        <v>0.4327678571428572</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F28" s="4">
+        <v>0.10386428571428573</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
@@ -3559,17 +3615,19 @@
       <c r="D29">
         <v>187.36</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="5">
-        <v>0.83642857142857152</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F29" s="4">
+        <v>0.30111428571428572</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
@@ -3582,17 +3640,19 @@
       <c r="D30">
         <v>72.150000000000006</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F30" s="5">
-        <v>0.32209821428571433</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="4">
+        <v>0.16749107142857145</v>
+      </c>
+      <c r="G30" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
@@ -3605,17 +3665,19 @@
       <c r="D31">
         <v>58.08</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F31" s="5">
-        <v>1.0371428571428571</v>
-      </c>
-      <c r="G31" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F31" s="4">
+        <v>8.2971428571428571E-2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
@@ -3628,17 +3690,19 @@
       <c r="D32">
         <v>76.14</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="5">
-        <v>0.33991071428571434</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="4">
+        <v>0.10877142857142857</v>
+      </c>
+      <c r="G32" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -3651,17 +3715,19 @@
       <c r="D33">
         <v>60.1</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="5">
-        <v>0.80491071428571437</v>
-      </c>
-      <c r="G33" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F33" s="4">
+        <v>7.5125000000000011E-2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>36</v>
       </c>
@@ -3674,17 +3740,19 @@
       <c r="D34">
         <v>86.18</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="F34" s="5">
-        <v>0.38473214285714291</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="4">
+        <v>0.21545000000000003</v>
+      </c>
+      <c r="G34" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
@@ -3694,17 +3762,19 @@
       <c r="D35">
         <v>84.93</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F35" s="5">
-        <v>0.37915178571428576</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F35" s="4">
+        <v>0.12132857142857144</v>
+      </c>
+      <c r="G35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
@@ -3717,17 +3787,19 @@
       <c r="D36">
         <v>86.18</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="5">
-        <v>0.38473214285714291</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="4">
+        <v>0.18467142857142863</v>
+      </c>
+      <c r="G36" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -3740,17 +3812,19 @@
       <c r="D37">
         <v>86.18</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F37" s="5">
-        <v>0.38473214285714291</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="4">
+        <v>0.47706785714285721</v>
+      </c>
+      <c r="G37" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -3763,17 +3837,19 @@
       <c r="D38">
         <v>88.15</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F38" s="5">
-        <v>0.39352678571428579</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="4">
+        <v>0.12592857142857145</v>
+      </c>
+      <c r="G38" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>41</v>
       </c>
@@ -3786,17 +3862,19 @@
       <c r="D39">
         <v>84.16</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="5">
-        <v>0.37571428571428578</v>
-      </c>
-      <c r="G39" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F39" s="4">
+        <v>9.0171428571428569E-2</v>
+      </c>
+      <c r="G39" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>42</v>
       </c>
@@ -3809,17 +3887,19 @@
       <c r="D40">
         <v>86.18</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F40" s="5">
-        <v>0.38473214285714291</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="F40" s="4">
+        <v>0.58479285714285723</v>
+      </c>
+      <c r="G40" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -3832,17 +3912,19 @@
       <c r="D41">
         <v>98.96</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F41" s="5">
-        <v>0.44178571428571434</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="F41" s="4">
+        <v>0.24740000000000001</v>
+      </c>
+      <c r="G41" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>44</v>
       </c>
@@ -3855,17 +3937,19 @@
       <c r="D42">
         <v>86.09</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F42" s="5">
-        <v>0.76866071428571436</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F42" s="4">
+        <v>0.1229857142857143</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
@@ -3878,17 +3962,19 @@
       <c r="D43">
         <v>100.21</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="5">
-        <v>0.44736607142857149</v>
-      </c>
-      <c r="G43" s="5">
+      <c r="F43" s="4">
+        <v>0.42947142857142862</v>
+      </c>
+      <c r="G43" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -3901,17 +3987,23 @@
       <c r="D44">
         <v>84.16</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F44" s="5">
-        <v>0.37571428571428578</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="F44" s="4">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="G44" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H44" s="8">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>47</v>
       </c>
@@ -3924,17 +4016,19 @@
       <c r="D45">
         <v>96.94</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F45" s="5">
-        <v>0.4327678571428572</v>
-      </c>
-      <c r="G45" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F45" s="4">
+        <v>0.121175</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>48</v>
       </c>
@@ -3944,17 +4038,19 @@
       <c r="D46">
         <v>96.95</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F46" s="5">
-        <v>0.43281250000000004</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F46" s="4">
+        <v>0.24237500000000003</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>49</v>
       </c>
@@ -3967,17 +4063,19 @@
       <c r="D47">
         <v>72.11</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F47" s="5">
-        <v>0.32191964285714292</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F47" s="4">
+        <v>0.1673982142857143</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>50</v>
       </c>
@@ -3990,17 +4088,19 @@
       <c r="D48">
         <v>88.11</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F48" s="5">
-        <v>0.39334821428571431</v>
-      </c>
-      <c r="G48" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F48" s="4">
+        <v>0.17307321428571429</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>51</v>
       </c>
@@ -4013,17 +4113,19 @@
       <c r="D49">
         <v>72.11</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F49" s="5">
-        <v>0.32191964285714292</v>
-      </c>
-      <c r="G49" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F49" s="4">
+        <v>0.30904285714285717</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>52</v>
       </c>
@@ -4033,17 +4135,19 @@
       <c r="D50">
         <v>119.38</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F50" s="5">
-        <v>0.5329464285714286</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F50" s="4">
+        <v>0.42635714285714288</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -4053,17 +4157,19 @@
       <c r="D51">
         <v>133.4</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F51" s="5">
-        <v>0.59553571428571439</v>
-      </c>
-      <c r="G51" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F51" s="4">
+        <v>0.71464285714285714</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>54</v>
       </c>
@@ -4076,17 +4182,19 @@
       <c r="D52">
         <v>100.2</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F52" s="5">
-        <v>0.44732142857142865</v>
-      </c>
-      <c r="G52" s="5">
+      <c r="F52" s="4">
+        <v>0.21471428571428575</v>
+      </c>
+      <c r="G52" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>55</v>
       </c>
@@ -4099,17 +4207,23 @@
       <c r="D53">
         <v>84.16</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F53" s="5">
-        <v>0.37571428571428578</v>
-      </c>
-      <c r="G53" s="5">
+      <c r="F53" s="4">
+        <v>0.18034285714285714</v>
+      </c>
+      <c r="G53" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H53" s="8">
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>56</v>
       </c>
@@ -4122,17 +4236,19 @@
       <c r="D54">
         <v>100.21</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F54" s="5">
-        <v>0.44736607142857149</v>
-      </c>
-      <c r="G54" s="5">
+      <c r="F54" s="4">
+        <v>0.17894642857142859</v>
+      </c>
+      <c r="G54" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>57</v>
       </c>
@@ -4145,17 +4261,19 @@
       <c r="D55">
         <v>153.84</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F55" s="5">
-        <v>0.68678571428571433</v>
-      </c>
-      <c r="G55" s="5">
+      <c r="F55" s="4">
+        <v>0.21977142857142859</v>
+      </c>
+      <c r="G55" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>58</v>
       </c>
@@ -4168,17 +4286,19 @@
       <c r="D56">
         <v>100.2</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F56" s="5">
-        <v>0.44732142857142865</v>
-      </c>
-      <c r="G56" s="5">
+      <c r="F56" s="4">
+        <v>0.17892857142857144</v>
+      </c>
+      <c r="G56" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>59</v>
       </c>
@@ -4191,17 +4311,23 @@
       <c r="D57">
         <v>78.11</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F57" s="5">
-        <v>0.34870535714285716</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F57" s="4">
+        <v>0.12553392857142856</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>60</v>
       </c>
@@ -4214,17 +4340,19 @@
       <c r="D58">
         <v>98.96</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="F58" s="5">
-        <v>0.44178571428571434</v>
-      </c>
-      <c r="G58" s="5">
+      <c r="F58" s="4">
+        <v>0.42411428571428572</v>
+      </c>
+      <c r="G58" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>61</v>
       </c>
@@ -4237,17 +4365,23 @@
       <c r="D59">
         <v>114.22</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F59" s="5">
-        <v>0.50991071428571433</v>
-      </c>
-      <c r="G59" s="5">
+      <c r="F59" s="4">
+        <v>0.28555000000000003</v>
+      </c>
+      <c r="G59" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H59" s="8">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="I59" s="8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>62</v>
       </c>
@@ -4260,17 +4394,23 @@
       <c r="D60">
         <v>100.2</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F60" s="5">
-        <v>0.44732142857142865</v>
-      </c>
-      <c r="G60" s="5">
+      <c r="F60" s="4">
+        <v>8.9464285714285718E-2</v>
+      </c>
+      <c r="G60" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H60" s="8">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>63</v>
       </c>
@@ -4280,17 +4420,19 @@
       <c r="D61">
         <v>131.38999999999999</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F61" s="5">
-        <v>0.58656249999999999</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F61" s="4">
+        <v>0.18769999999999998</v>
+      </c>
+      <c r="G61" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -4303,17 +4445,23 @@
       <c r="D62">
         <v>98.19</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F62" s="5">
-        <v>0.43834821428571435</v>
-      </c>
-      <c r="G62" s="5">
+      <c r="F62" s="4">
+        <v>0.17533928571428573</v>
+      </c>
+      <c r="G62" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H62" s="8">
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>65</v>
       </c>
@@ -4326,17 +4474,19 @@
       <c r="D63">
         <v>112.99</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F63" s="5">
-        <v>0.50441964285714291</v>
-      </c>
-      <c r="G63" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F63" s="4">
+        <v>0.22194464285714285</v>
+      </c>
+      <c r="G63" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
@@ -4349,17 +4499,19 @@
       <c r="D64">
         <v>100.12</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F64" s="5">
-        <v>0.44696428571428576</v>
-      </c>
-      <c r="G64" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F64" s="4">
+        <v>0.17878571428571433</v>
+      </c>
+      <c r="G64" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>67</v>
       </c>
@@ -4372,17 +4524,19 @@
       <c r="D65">
         <v>88.11</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F65" s="5">
-        <v>0.78669642857142863</v>
-      </c>
-      <c r="G65" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F65" s="4">
+        <v>9.4403571428571434E-2</v>
+      </c>
+      <c r="G65" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>68</v>
       </c>
@@ -4392,17 +4546,19 @@
       <c r="D66">
         <v>163.83000000000001</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F66" s="5">
-        <v>0.73138392857142875</v>
-      </c>
-      <c r="G66" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F66" s="4">
+        <v>0.26329821428571432</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>69</v>
       </c>
@@ -4415,17 +4571,19 @@
       <c r="D67">
         <v>114.22</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F67" s="5">
-        <v>0.50991071428571433</v>
-      </c>
-      <c r="G67" s="5">
+      <c r="F67" s="4">
+        <v>0.14277500000000001</v>
+      </c>
+      <c r="G67" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>70</v>
       </c>
@@ -4438,17 +4596,23 @@
       <c r="D68">
         <v>114.23</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F68" s="5">
-        <v>0.50995535714285722</v>
-      </c>
-      <c r="G68" s="5">
+      <c r="F68" s="4">
+        <v>0.14278750000000001</v>
+      </c>
+      <c r="G68" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H68" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I68" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>71</v>
       </c>
@@ -4461,17 +4625,19 @@
       <c r="D69">
         <v>110.97</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="F69" s="5">
-        <v>0.49540178571428578</v>
-      </c>
-      <c r="G69" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F69" s="4">
+        <v>0.19816071428571427</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>72</v>
       </c>
@@ -4484,17 +4650,23 @@
       <c r="D70">
         <v>114.23</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F70" s="5">
-        <v>0.50995535714285722</v>
-      </c>
-      <c r="G70" s="5">
+      <c r="F70" s="4">
+        <v>0.10199107142857144</v>
+      </c>
+      <c r="G70" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H70" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I70" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>73</v>
       </c>
@@ -4507,17 +4679,19 @@
       <c r="D71">
         <v>100.16</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="F71" s="5">
-        <v>0.44714285714285718</v>
-      </c>
-      <c r="G71" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F71" s="4">
+        <v>0.10731428571428571</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+    </row>
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>74</v>
       </c>
@@ -4530,17 +4704,23 @@
       <c r="D72">
         <v>92.14</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="5">
-        <v>0.41133928571428574</v>
-      </c>
-      <c r="G72" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F72" s="4">
+        <v>0.11517500000000001</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H72" s="8">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="I72" s="8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>75</v>
       </c>
@@ -4553,17 +4733,23 @@
       <c r="D73">
         <v>114.23</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F73" s="5">
-        <v>0.50995535714285722</v>
-      </c>
-      <c r="G73" s="5">
+      <c r="F73" s="4">
+        <v>0.16318571428571432</v>
+      </c>
+      <c r="G73" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H73" s="8">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="I73" s="8">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>76</v>
       </c>
@@ -4576,17 +4762,19 @@
       <c r="D74">
         <v>110.97</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F74" s="5">
-        <v>0.49540178571428578</v>
-      </c>
-      <c r="G74" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F74" s="4">
+        <v>0.17834464285714285</v>
+      </c>
+      <c r="G74" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+    </row>
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>77</v>
       </c>
@@ -4599,17 +4787,19 @@
       <c r="D75">
         <v>133.4</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="F75" s="5">
-        <v>0.59553571428571439</v>
-      </c>
-      <c r="G75" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F75" s="4">
+        <v>0.14292857142857143</v>
+      </c>
+      <c r="G75" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>78</v>
       </c>
@@ -4619,17 +4809,19 @@
       <c r="D76">
         <v>165.8</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F76" s="5">
-        <v>0.74017857142857157</v>
-      </c>
-      <c r="G76" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F76" s="4">
+        <v>0.11842857142857144</v>
+      </c>
+      <c r="G76" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>79</v>
       </c>
@@ -4642,17 +4834,19 @@
       <c r="D77">
         <v>100.16</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F77" s="5">
-        <v>1.3414285714285714</v>
-      </c>
-      <c r="G77" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F77" s="4">
+        <v>0.14308571428571429</v>
+      </c>
+      <c r="G77" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>80</v>
       </c>
@@ -4662,17 +4856,19 @@
       <c r="D78">
         <v>208.28</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F78" s="5">
-        <v>0.9298214285714288</v>
-      </c>
-      <c r="G78" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F78" s="4">
+        <v>0.22315714285714289</v>
+      </c>
+      <c r="G78" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+    </row>
+    <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>81</v>
       </c>
@@ -4685,17 +4881,19 @@
       <c r="D79">
         <v>187.86</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F79" s="5">
-        <v>0.83866071428571443</v>
-      </c>
-      <c r="G79" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F79" s="4">
+        <v>1.5431357142857145</v>
+      </c>
+      <c r="G79" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>82</v>
       </c>
@@ -4705,17 +4903,19 @@
       <c r="D80">
         <v>112.56</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F80" s="5">
-        <v>0.50250000000000006</v>
-      </c>
-      <c r="G80" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F80" s="4">
+        <v>0.36180000000000001</v>
+      </c>
+      <c r="G80" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+    </row>
+    <row r="81" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>83</v>
       </c>
@@ -4728,17 +4928,23 @@
       <c r="D81">
         <v>106.17</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="F81" s="5">
-        <v>0.47397321428571437</v>
-      </c>
-      <c r="G81" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F81" s="4">
+        <v>9.4794642857142869E-2</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H81" s="8">
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="I81" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -4751,17 +4957,23 @@
       <c r="D82">
         <v>106</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="F82" s="5">
-        <v>0.47321428571428581</v>
-      </c>
-      <c r="G82" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F82" s="4">
+        <v>9.4642857142857154E-2</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H82" s="8">
+        <v>3.15E-2</v>
+      </c>
+      <c r="I82" s="8">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>85</v>
       </c>
@@ -4774,17 +4986,23 @@
       <c r="D83">
         <v>128.26</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F83" s="5">
-        <v>0.5725892857142858</v>
-      </c>
-      <c r="G83" s="5">
+      <c r="F83" s="4">
+        <v>0.11451785714285714</v>
+      </c>
+      <c r="G83" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H83" s="8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I83" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>86</v>
       </c>
@@ -4797,17 +5015,23 @@
       <c r="D84">
         <v>106.16</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F84" s="5">
-        <v>0.47392857142857142</v>
-      </c>
-      <c r="G84" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F84" s="4">
+        <v>0.20852857142857142</v>
+      </c>
+      <c r="G84" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H84" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="I84" s="8">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
@@ -4820,17 +5044,19 @@
       <c r="D85">
         <v>104.15</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F85" s="5">
-        <v>0.46495535714285724</v>
-      </c>
-      <c r="G85" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F85" s="4">
+        <v>0.11158928571428572</v>
+      </c>
+      <c r="G85" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>88</v>
       </c>
@@ -4843,17 +5069,19 @@
       <c r="D86">
         <v>252.73</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F86" s="5">
-        <v>1.1282589285714286</v>
-      </c>
-      <c r="G86" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F86" s="4">
+        <v>0.63182500000000008</v>
+      </c>
+      <c r="G86" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>89</v>
       </c>
@@ -4866,17 +5094,23 @@
       <c r="D87">
         <v>120.19</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F87" s="5">
-        <v>0.53656250000000005</v>
-      </c>
-      <c r="G87" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F87" s="4">
+        <v>0.19316250000000001</v>
+      </c>
+      <c r="G87" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H87" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="I87" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>90</v>
       </c>
@@ -4886,17 +5120,19 @@
       <c r="D88">
         <v>167.85</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F88" s="5">
-        <v>0.74933035714285723</v>
-      </c>
-      <c r="G88" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F88" s="4">
+        <v>0.20981250000000001</v>
+      </c>
+      <c r="G88" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>91</v>
       </c>
@@ -4909,17 +5145,23 @@
       <c r="D89">
         <v>120.19</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F89" s="5">
-        <v>0.53656250000000005</v>
-      </c>
-      <c r="G89" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F89" s="4">
+        <v>0.25755</v>
+      </c>
+      <c r="G89" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H89" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I89" s="8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>92</v>
       </c>
@@ -4932,17 +5174,23 @@
       <c r="D90">
         <v>120.19</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F90" s="5">
-        <v>0.53656250000000005</v>
-      </c>
-      <c r="G90" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F90" s="4">
+        <v>0.21462500000000001</v>
+      </c>
+      <c r="G90" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H90" s="8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I90" s="8">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>93</v>
       </c>
@@ -4955,17 +5203,23 @@
       <c r="D91">
         <v>120.19</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F91" s="5">
-        <v>0.53656250000000005</v>
-      </c>
-      <c r="G91" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F91" s="4">
+        <v>0.34340000000000004</v>
+      </c>
+      <c r="G91" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H91" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I91" s="8">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -4978,17 +5232,23 @@
       <c r="D92">
         <v>120.19</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F92" s="5">
-        <v>0.53656250000000005</v>
-      </c>
-      <c r="G92" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F92" s="4">
+        <v>0.25755</v>
+      </c>
+      <c r="G92" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H92" s="8">
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="I92" s="8">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -5001,17 +5261,23 @@
       <c r="D93">
         <v>142.29</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F93" s="5">
-        <v>0.63522321428571427</v>
-      </c>
-      <c r="G93" s="5">
+      <c r="F93" s="4">
+        <v>0.27949821428571425</v>
+      </c>
+      <c r="G93" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H93" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="I93" s="8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -5024,17 +5290,23 @@
       <c r="D94">
         <v>120.19</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="F94" s="5">
-        <v>0.53656250000000005</v>
-      </c>
-      <c r="G94" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F94" s="4">
+        <v>0.128775</v>
+      </c>
+      <c r="G94" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H94" s="8">
+        <v>5.5999999999999994E-2</v>
+      </c>
+      <c r="I94" s="8">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>97</v>
       </c>
@@ -5047,17 +5319,23 @@
       <c r="D95">
         <v>120.19</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F95" s="5">
-        <v>0.53656250000000005</v>
-      </c>
-      <c r="G95" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F95" s="4">
+        <v>0.25755</v>
+      </c>
+      <c r="G95" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H95" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="I95" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>98</v>
       </c>
@@ -5067,17 +5345,19 @@
       <c r="D96">
         <v>146.99</v>
       </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F96" s="5">
-        <v>0.65620535714285722</v>
-      </c>
-      <c r="G96" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F96" s="4">
+        <v>1.3124107142857144</v>
+      </c>
+      <c r="G96" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+    </row>
+    <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>99</v>
       </c>
@@ -5087,17 +5367,19 @@
       <c r="D97">
         <v>146.99</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F97" s="5">
-        <v>0.65620535714285722</v>
-      </c>
-      <c r="G97" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F97" s="4">
+        <v>0.78744642857142866</v>
+      </c>
+      <c r="G97" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+    </row>
+    <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>100</v>
       </c>
@@ -5110,17 +5392,23 @@
       <c r="D98">
         <v>120.19</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F98" s="5">
-        <v>0.53656250000000005</v>
-      </c>
-      <c r="G98" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F98" s="4">
+        <v>2.4467250000000003</v>
+      </c>
+      <c r="G98" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H98" s="8">
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="I98" s="8">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>101</v>
       </c>
@@ -5133,17 +5421,19 @@
       <c r="D99">
         <v>126.58</v>
       </c>
-      <c r="E99" s="6" t="s">
+      <c r="E99" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="F99" s="5">
-        <v>0.56508928571428585</v>
-      </c>
-      <c r="G99" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F99" s="4">
+        <v>1.9439071428571426</v>
+      </c>
+      <c r="G99" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+    </row>
+    <row r="100" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>102</v>
       </c>
@@ -5156,17 +5446,23 @@
       <c r="D100">
         <v>134.22</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="E100" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F100" s="5">
-        <v>0.59919642857142863</v>
-      </c>
-      <c r="G100" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F100" s="4">
+        <v>0.67110000000000003</v>
+      </c>
+      <c r="G100" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H100" s="8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I100" s="8">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>103</v>
       </c>
@@ -5179,17 +5475,23 @@
       <c r="D101">
         <v>134.22</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="E101" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F101" s="5">
-        <v>0.59919642857142863</v>
-      </c>
-      <c r="G101" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F101" s="4">
+        <v>0.23967857142857146</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H101" s="8">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I101" s="8">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>104</v>
       </c>
@@ -5199,17 +5501,19 @@
       <c r="D102">
         <v>146.99</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="E102" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F102" s="5">
-        <v>0.65620535714285722</v>
-      </c>
-      <c r="G102" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F102" s="4">
+        <v>3.0972892857142855</v>
+      </c>
+      <c r="G102" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+    </row>
+    <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>105</v>
       </c>
@@ -5222,17 +5526,23 @@
       <c r="D103">
         <v>156.31</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F103" s="5">
-        <v>0.69781250000000006</v>
-      </c>
-      <c r="G103" s="5">
+      <c r="F103" s="4">
+        <v>0.39077500000000004</v>
+      </c>
+      <c r="G103" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H103" s="8">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I103" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>106</v>
       </c>
@@ -5245,17 +5555,23 @@
       <c r="D104">
         <v>170.33</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="F104" s="5">
-        <v>1.5208035714285717</v>
-      </c>
-      <c r="G104" s="5">
+      <c r="F104" s="4">
+        <v>0.24332857142857145</v>
+      </c>
+      <c r="G104" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="H104" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="I104" s="8">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>107</v>
       </c>
@@ -5265,17 +5581,19 @@
       <c r="D105">
         <v>181.45</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F105" s="5">
-        <v>1.6200892857142857</v>
-      </c>
-      <c r="G105" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F105" s="4">
+        <v>0.453625</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+    </row>
+    <row r="106" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>108</v>
       </c>
@@ -5285,17 +5603,19 @@
       <c r="D106">
         <v>260.74</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="E106" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F106" s="5">
-        <v>1.1640178571428572</v>
-      </c>
-      <c r="G106" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F106" s="4">
+        <v>0.88465357142857148</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+    </row>
+    <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>109</v>
       </c>
@@ -5308,17 +5628,19 @@
       <c r="D107">
         <v>128.16999999999999</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="E107" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F107" s="5">
-        <v>1.7165624999999998</v>
-      </c>
-      <c r="G107" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F107" s="4">
+        <v>0.25176249999999994</v>
+      </c>
+      <c r="G107" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+    </row>
+    <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>110</v>
       </c>
@@ -5331,17 +5653,19 @@
       <c r="D108">
         <v>44.05</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F108" s="5">
-        <v>0.19665178571428574</v>
-      </c>
-      <c r="G108" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F108" s="4">
+        <v>7.0794642857142862E-2</v>
+      </c>
+      <c r="G108" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+    </row>
+    <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>111</v>
       </c>
@@ -5354,17 +5678,19 @@
       <c r="D109">
         <v>58.08</v>
       </c>
-      <c r="E109" s="6" t="s">
+      <c r="E109" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F109" s="5">
-        <v>0.25928571428571429</v>
-      </c>
-      <c r="G109" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F109" s="4">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="G109" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+    </row>
+    <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>112</v>
       </c>
@@ -5374,17 +5700,19 @@
       <c r="D110">
         <v>70.09</v>
       </c>
-      <c r="E110" s="6" t="s">
+      <c r="E110" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F110" s="5">
-        <v>0.31290178571428573</v>
-      </c>
-      <c r="G110" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F110" s="4">
+        <v>0.27535357142857142</v>
+      </c>
+      <c r="G110" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+    </row>
+    <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>113</v>
       </c>
@@ -5397,17 +5725,19 @@
       <c r="D111">
         <v>70.09</v>
       </c>
-      <c r="E111" s="6" t="s">
+      <c r="E111" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F111" s="5">
-        <v>0.31290178571428573</v>
-      </c>
-      <c r="G111" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F111" s="4">
+        <v>8.761250000000001E-2</v>
+      </c>
+      <c r="G111" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+    </row>
+    <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>114</v>
       </c>
@@ -5420,17 +5750,19 @@
       <c r="D112">
         <v>72.11</v>
       </c>
-      <c r="E112" s="6" t="s">
+      <c r="E112" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F112" s="5">
-        <v>0.32191964285714292</v>
-      </c>
-      <c r="G112" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F112" s="4">
+        <v>0.12876785714285716</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+    </row>
+    <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>115</v>
       </c>
@@ -5443,17 +5775,19 @@
       <c r="D113">
         <v>106.12</v>
       </c>
-      <c r="E113" s="6" t="s">
+      <c r="E113" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F113" s="5">
-        <v>0.47375000000000012</v>
-      </c>
-      <c r="G113" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F113" s="4">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="G113" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+    </row>
+    <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>116</v>
       </c>
@@ -5466,17 +5800,19 @@
       <c r="D114">
         <v>86.13</v>
       </c>
-      <c r="E114" s="6" t="s">
+      <c r="E114" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F114" s="5">
-        <v>0.7690178571428572</v>
-      </c>
-      <c r="G114" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F114" s="4">
+        <v>0.15380357142857143</v>
+      </c>
+      <c r="G114" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+    </row>
+    <row r="115" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>117</v>
       </c>
@@ -5486,17 +5822,19 @@
       <c r="D115">
         <v>120.15</v>
       </c>
-      <c r="E115" s="6" t="s">
+      <c r="E115" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F115" s="5">
-        <v>0.53638392857142858</v>
-      </c>
-      <c r="G115" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="F115" s="4">
+        <v>0.21455357142857145</v>
+      </c>
+      <c r="G115" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+    </row>
+    <row r="116" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>118</v>
       </c>
@@ -5509,15 +5847,17 @@
       <c r="D116">
         <v>100.16</v>
       </c>
-      <c r="E116" s="6" t="s">
+      <c r="E116" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F116" s="5">
-        <v>0.44714285714285718</v>
-      </c>
-      <c r="G116" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="F116" s="4">
+        <v>0.14308571428571429</v>
+      </c>
+      <c r="G116" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
